--- a/Results/Basics.xlsx
+++ b/Results/Basics.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/indrajeet/Documents/git/Computational-Sprinting-for-Browsers/Results/Batch_4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/indrajeet/Documents/git/Computational-Sprinting-for-Browsers/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BA20F2-3397-4D4A-9D45-3FABB3464381}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CE40B9-D418-7241-9DA9-70939D432AEE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{C1A0E7F3-1DB2-8C48-844D-9151C7A05654}"/>
   </bookViews>
@@ -429,7 +429,7 @@
   <dimension ref="A1:P192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -574,7 +574,7 @@
         <v>1131.93</v>
       </c>
       <c r="N7" s="2">
-        <v>1198.18</v>
+        <v>1141.49</v>
       </c>
       <c r="O7" s="2">
         <v>1155.17</v>
@@ -677,7 +677,7 @@
         <v>25.491</v>
       </c>
       <c r="N11" s="2">
-        <v>31.177</v>
+        <v>25.186</v>
       </c>
       <c r="O11" s="2">
         <v>26.436</v>

--- a/Results/Basics.xlsx
+++ b/Results/Basics.xlsx
@@ -8,13 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/indrajeet/Documents/git/Computational-Sprinting-for-Browsers/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CE40B9-D418-7241-9DA9-70939D432AEE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5019ABFB-4104-474E-AAB2-BFC8DDAFEF7C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{C1A0E7F3-1DB2-8C48-844D-9151C7A05654}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$73</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$A$74</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$B$73:$P$73</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$74:$P$74</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$A$73</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$A$74</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$B$73:$P$73</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">Sheet1!$B$74:$P$74</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -127,6 +137,3745 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$P$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1134.6400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1073.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1123.24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1172.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1194.17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1182.31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1190.43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1084.8800000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1123.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1145.19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1171.02</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1131.93</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1141.49</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1155.17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1141.67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C123-EE44-9010-F63E04792941}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="887103536"/>
+        <c:axId val="887105216"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="887103536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="887105216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="887105216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="887103536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$27:$P$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$28:$P$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>16.047999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.783999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.478000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.824000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.806999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.492000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.021000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.97</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24.471</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26.498999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25.491</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25.186</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26.436</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28.706</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5B17-0F44-906A-2578B5D789A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="914394640"/>
+        <c:axId val="881506176"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="914394640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="881506176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="881506176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="914394640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$51:$P$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$52:$P$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>7.8150000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.023999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.795</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.326000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.673999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.891</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.989000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.248000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.211</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.05</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.972000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.140999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.712</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EB87-A844-95A5-8BF9BB45ECC5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="886147872"/>
+        <c:axId val="886149552"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="886147872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="886149552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="886149552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="886147872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$74</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$73:$P$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$74:$P$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1CC5-0244-A072-F1FB626AC6F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="709971504"/>
+        <c:axId val="886250960"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="709971504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="886250960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="886250960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="709971504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D6B8930-4228-1D4F-8DDB-FD2F18C64283}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6AE90F6-DEBF-3C42-A668-C6142E563130}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C018E07-182C-B74B-B433-D83EF2E33DCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{410BE4D9-1E4E-AC41-BE97-5DBE00FA6086}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -428,8 +4177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5428DCD9-58A6-9648-8416-9D167C56698A}">
   <dimension ref="A1:P192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73:P74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -583,805 +4332,647 @@
         <v>1141.67</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="20" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2">
+    <row r="27" spans="1:16" ht="20" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2">
         <v>0</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C27" s="2">
         <v>5</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D27" s="2">
         <v>10</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E27" s="2">
         <v>15</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F27" s="2">
         <v>20</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G27" s="2">
         <v>25</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H27" s="2">
         <v>30</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I27" s="2">
         <v>35</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J27" s="2">
         <v>40</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K27" s="2">
         <v>45</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L27" s="2">
         <v>50</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M27" s="2">
         <v>55</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N27" s="2">
         <v>60</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O27" s="2">
         <v>65</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P27" s="2">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="20" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+    <row r="28" spans="1:16" ht="20" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B28" s="2">
         <v>16.047999999999998</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C28" s="2">
         <v>20.09</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D28" s="2">
         <v>20.783999999999999</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E28" s="2">
         <v>21.478000000000002</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F28" s="1">
         <v>21.824000000000002</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G28" s="2">
         <v>20.806999999999999</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H28" s="2">
         <v>23.492000000000001</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I28" s="2">
         <v>26.021000000000001</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J28" s="2">
         <v>24.97</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K28" s="2">
         <v>24.471</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L28" s="2">
         <v>26.498999999999999</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M28" s="2">
         <v>25.491</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N28" s="2">
         <v>25.186</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O28" s="2">
         <v>26.436</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P28" s="2">
         <v>28.706</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="20" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2">
+    <row r="51" spans="1:16" ht="20" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="2">
         <v>0</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C51" s="2">
         <v>5</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D51" s="2">
         <v>10</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E51" s="2">
         <v>15</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F51" s="2">
         <v>20</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G51" s="2">
         <v>25</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H51" s="2">
         <v>30</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I51" s="2">
         <v>35</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J51" s="2">
         <v>40</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K51" s="2">
         <v>45</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L51" s="2">
         <v>50</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M51" s="2">
         <v>55</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N51" s="2">
         <v>60</v>
       </c>
-      <c r="O14" s="2">
+      <c r="O51" s="2">
         <v>65</v>
       </c>
-      <c r="P14" s="2">
+      <c r="P51" s="2">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="20" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+    <row r="52" spans="1:16" ht="20" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B52" s="2">
         <v>7.8150000000000004</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C52" s="2">
         <v>12.05</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D52" s="2">
         <v>14.023999999999999</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E52" s="2">
         <v>12.795</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F52" s="1">
         <v>15.326000000000001</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G52" s="2">
         <v>10.673999999999999</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H52" s="2">
         <v>18.23</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I52" s="2">
         <v>8.891</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J52" s="2">
         <v>18.989000000000001</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K52" s="2">
         <v>16.248000000000001</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L52" s="2">
         <v>13.211</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M52" s="2">
         <v>18.05</v>
       </c>
-      <c r="N15" s="2">
-        <v>12.443</v>
-      </c>
-      <c r="O15" s="2">
-        <v>21.349</v>
-      </c>
-      <c r="P15" s="2">
-        <v>19.193999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="20" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2">
+      <c r="N52" s="2">
+        <v>19.972000000000001</v>
+      </c>
+      <c r="O52" s="2">
+        <v>18.140999999999998</v>
+      </c>
+      <c r="P52" s="2">
+        <v>16.712</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="20" x14ac:dyDescent="0.2">
+      <c r="A73" s="1"/>
+      <c r="B73" s="2">
         <v>0</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C73" s="2">
         <v>5</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D73" s="2">
         <v>10</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E73" s="2">
         <v>15</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F73" s="2">
         <v>20</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G73" s="2">
         <v>25</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H73" s="2">
         <v>30</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I73" s="2">
         <v>35</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J73" s="2">
         <v>40</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K73" s="2">
         <v>45</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L73" s="2">
         <v>50</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M73" s="2">
         <v>55</v>
       </c>
-      <c r="N18" s="2">
+      <c r="N73" s="2">
         <v>60</v>
       </c>
-      <c r="O18" s="2">
+      <c r="O73" s="2">
         <v>65</v>
       </c>
-      <c r="P18" s="2">
+      <c r="P73" s="2">
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="20" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+    <row r="74" spans="1:16" ht="20" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B74" s="2">
         <v>21</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C74" s="2">
         <v>20</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D74" s="2">
         <v>21</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E74" s="2">
         <v>20</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F74" s="1">
         <v>21</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G74" s="2">
         <v>20</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H74" s="2">
         <v>20</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I74" s="2">
         <v>21</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J74" s="2">
         <v>20</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K74" s="2">
         <v>21</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L74" s="2">
         <v>17</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M74" s="2">
         <v>20</v>
       </c>
-      <c r="N19" s="2">
-        <v>14</v>
-      </c>
-      <c r="O19" s="2">
+      <c r="N74" s="2">
+        <v>21</v>
+      </c>
+      <c r="O74" s="2">
+        <v>21</v>
+      </c>
+      <c r="P74" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" ht="20" x14ac:dyDescent="0.2">
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+      <c r="P88" s="2"/>
+    </row>
+    <row r="89" spans="1:16" ht="20" x14ac:dyDescent="0.2">
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="P89" s="2"/>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="20" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="20" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B99" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="20" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="20" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="20" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="2"/>
+    </row>
+    <row r="103" spans="1:11" ht="20" x14ac:dyDescent="0.2">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="2"/>
+    </row>
+    <row r="104" spans="1:11" ht="20" x14ac:dyDescent="0.2">
+      <c r="A104" s="1"/>
+      <c r="B104" s="2">
+        <v>0</v>
+      </c>
+      <c r="C104" s="2">
+        <v>5</v>
+      </c>
+      <c r="D104" s="2">
+        <v>10</v>
+      </c>
+      <c r="E104" s="2">
+        <v>15</v>
+      </c>
+      <c r="F104" s="2">
+        <v>20</v>
+      </c>
+      <c r="G104" s="2">
+        <v>25</v>
+      </c>
+      <c r="H104" s="2">
+        <v>30</v>
+      </c>
+      <c r="I104" s="2">
+        <v>35</v>
+      </c>
+      <c r="J104" s="2">
+        <v>40</v>
+      </c>
+      <c r="K104" s="2"/>
+    </row>
+    <row r="105" spans="1:11" ht="20" x14ac:dyDescent="0.2">
+      <c r="A105" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B105" s="2">
+        <v>1054.49</v>
+      </c>
+      <c r="C105" s="2">
+        <v>1042.28</v>
+      </c>
+      <c r="D105" s="2">
+        <v>1048.56</v>
+      </c>
+      <c r="E105" s="2">
+        <v>1100.71</v>
+      </c>
+      <c r="F105" s="1">
+        <v>1002.39</v>
+      </c>
+      <c r="G105" s="2">
+        <v>1010.71</v>
+      </c>
+      <c r="H105" s="2">
+        <v>1029.77</v>
+      </c>
+      <c r="I105" s="2">
+        <v>1016.08</v>
+      </c>
+      <c r="J105" s="2">
+        <v>1067.9100000000001</v>
+      </c>
+      <c r="K105" s="2"/>
+    </row>
+    <row r="107" spans="1:11" ht="20" x14ac:dyDescent="0.2">
+      <c r="A107" s="1"/>
+      <c r="B107" s="2">
+        <v>0</v>
+      </c>
+      <c r="C107" s="2">
+        <v>5</v>
+      </c>
+      <c r="D107" s="2">
+        <v>10</v>
+      </c>
+      <c r="E107" s="2">
+        <v>15</v>
+      </c>
+      <c r="F107" s="2">
+        <v>20</v>
+      </c>
+      <c r="G107" s="2">
+        <v>25</v>
+      </c>
+      <c r="H107" s="2">
+        <v>30</v>
+      </c>
+      <c r="I107" s="2">
+        <v>35</v>
+      </c>
+      <c r="J107" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="20" x14ac:dyDescent="0.2">
+      <c r="A108" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B108" s="2">
+        <v>8.9939999999999998</v>
+      </c>
+      <c r="C108" s="2">
+        <v>16.207999999999998</v>
+      </c>
+      <c r="D108" s="2">
+        <v>17.068000000000001</v>
+      </c>
+      <c r="E108" s="2">
+        <v>16.329000000000001</v>
+      </c>
+      <c r="F108" s="1">
+        <v>16.995999999999999</v>
+      </c>
+      <c r="G108" s="2">
+        <v>18.25</v>
+      </c>
+      <c r="H108" s="2">
+        <v>17.798999999999999</v>
+      </c>
+      <c r="I108" s="2">
+        <v>17.2026</v>
+      </c>
+      <c r="J108" s="2">
+        <v>18.907</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="20" x14ac:dyDescent="0.2">
+      <c r="A110" s="1"/>
+      <c r="B110" s="2">
+        <v>0</v>
+      </c>
+      <c r="C110" s="2">
+        <v>5</v>
+      </c>
+      <c r="D110" s="2">
+        <v>10</v>
+      </c>
+      <c r="E110" s="2">
+        <v>15</v>
+      </c>
+      <c r="F110" s="2">
+        <v>20</v>
+      </c>
+      <c r="G110" s="2">
+        <v>25</v>
+      </c>
+      <c r="H110" s="2">
+        <v>30</v>
+      </c>
+      <c r="I110" s="2">
+        <v>35</v>
+      </c>
+      <c r="J110" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="20" x14ac:dyDescent="0.2">
+      <c r="A111" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B111" s="2">
+        <v>23</v>
+      </c>
+      <c r="C111" s="2">
+        <v>18</v>
+      </c>
+      <c r="D111" s="2">
+        <v>18</v>
+      </c>
+      <c r="E111" s="2">
+        <v>20</v>
+      </c>
+      <c r="F111" s="1">
+        <v>15</v>
+      </c>
+      <c r="G111" s="2">
         <v>19</v>
       </c>
-      <c r="P19" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="H111" s="2">
+        <v>18</v>
+      </c>
+      <c r="I111" s="2">
+        <v>16</v>
+      </c>
+      <c r="J111" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="A113" s="1"/>
+      <c r="B113" s="2">
+        <v>0</v>
+      </c>
+      <c r="C113" s="2">
+        <v>5</v>
+      </c>
+      <c r="D113" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="20" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="2">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="20" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="2">
+      <c r="E113" s="2">
+        <v>15</v>
+      </c>
+      <c r="F113" s="2">
+        <v>20</v>
+      </c>
+      <c r="G113" s="2">
+        <v>25</v>
+      </c>
+      <c r="H113" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" ht="20" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="20" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="1">
+      <c r="I113" s="2">
+        <v>35</v>
+      </c>
+      <c r="J113" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="A114" s="2">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" ht="20" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:16" ht="20" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:16" ht="20" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="2">
-        <v>0</v>
-      </c>
-      <c r="C33" s="2">
-        <v>5</v>
-      </c>
-      <c r="D33" s="2">
-        <v>10</v>
-      </c>
-      <c r="E33" s="2">
-        <v>15</v>
-      </c>
-      <c r="F33" s="2">
-        <v>20</v>
-      </c>
-      <c r="G33" s="2">
-        <v>25</v>
-      </c>
-      <c r="H33" s="2">
-        <v>30</v>
-      </c>
-      <c r="I33" s="2">
-        <v>35</v>
-      </c>
-      <c r="J33" s="2">
-        <v>40</v>
-      </c>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-    </row>
-    <row r="34" spans="1:16" ht="20" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="B34" s="2">
-        <v>1054.49</v>
-      </c>
-      <c r="C34" s="2">
-        <v>1042.28</v>
-      </c>
-      <c r="D34" s="2">
-        <v>1048.56</v>
-      </c>
-      <c r="E34" s="2">
-        <v>1100.71</v>
-      </c>
-      <c r="F34" s="1">
-        <v>1002.39</v>
-      </c>
-      <c r="G34" s="2">
-        <v>1010.71</v>
-      </c>
-      <c r="H34" s="2">
-        <v>1029.77</v>
-      </c>
-      <c r="I34" s="2">
-        <v>1016.08</v>
-      </c>
-      <c r="J34" s="2">
-        <v>1067.9100000000001</v>
-      </c>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-    </row>
-    <row r="36" spans="1:16" ht="20" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="2">
-        <v>0</v>
-      </c>
-      <c r="C36" s="2">
-        <v>5</v>
-      </c>
-      <c r="D36" s="2">
-        <v>10</v>
-      </c>
-      <c r="E36" s="2">
-        <v>15</v>
-      </c>
-      <c r="F36" s="2">
-        <v>20</v>
-      </c>
-      <c r="G36" s="2">
-        <v>25</v>
-      </c>
-      <c r="H36" s="2">
-        <v>30</v>
-      </c>
-      <c r="I36" s="2">
-        <v>35</v>
-      </c>
-      <c r="J36" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="20" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="B37" s="2">
-        <v>8.9939999999999998</v>
-      </c>
-      <c r="C37" s="2">
-        <v>16.207999999999998</v>
-      </c>
-      <c r="D37" s="2">
-        <v>17.068000000000001</v>
-      </c>
-      <c r="E37" s="2">
-        <v>16.329000000000001</v>
-      </c>
-      <c r="F37" s="1">
-        <v>16.995999999999999</v>
-      </c>
-      <c r="G37" s="2">
-        <v>18.25</v>
-      </c>
-      <c r="H37" s="2">
-        <v>17.798999999999999</v>
-      </c>
-      <c r="I37" s="2">
-        <v>17.2026</v>
-      </c>
-      <c r="J37" s="2">
-        <v>18.907</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="20" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="B39" s="2">
-        <v>0</v>
-      </c>
-      <c r="C39" s="2">
-        <v>5</v>
-      </c>
-      <c r="D39" s="2">
-        <v>10</v>
-      </c>
-      <c r="E39" s="2">
-        <v>15</v>
-      </c>
-      <c r="F39" s="2">
-        <v>20</v>
-      </c>
-      <c r="G39" s="2">
-        <v>25</v>
-      </c>
-      <c r="H39" s="2">
-        <v>30</v>
-      </c>
-      <c r="I39" s="2">
-        <v>35</v>
-      </c>
-      <c r="J39" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="20" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="B40" s="2">
-        <v>23</v>
-      </c>
-      <c r="C40" s="2">
-        <v>18</v>
-      </c>
-      <c r="D40" s="2">
-        <v>18</v>
-      </c>
-      <c r="E40" s="2">
-        <v>20</v>
-      </c>
-      <c r="F40" s="1">
-        <v>15</v>
-      </c>
-      <c r="G40" s="2">
-        <v>19</v>
-      </c>
-      <c r="H40" s="2">
-        <v>18</v>
-      </c>
-      <c r="I40" s="2">
-        <v>16</v>
-      </c>
-      <c r="J40" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="20" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-      <c r="B42" s="2">
-        <v>0</v>
-      </c>
-      <c r="C42" s="2">
-        <v>5</v>
-      </c>
-      <c r="D42" s="2">
-        <v>10</v>
-      </c>
-      <c r="E42" s="2">
-        <v>15</v>
-      </c>
-      <c r="F42" s="2">
-        <v>20</v>
-      </c>
-      <c r="G42" s="2">
-        <v>25</v>
-      </c>
-      <c r="H42" s="2">
-        <v>30</v>
-      </c>
-      <c r="I42" s="2">
-        <v>35</v>
-      </c>
-      <c r="J42" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" ht="20" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="B43" s="2">
+      <c r="B114" s="2">
         <v>6.9720000000000004</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C114" s="2">
         <v>13.701000000000001</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D114" s="2">
         <v>15.528</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E114" s="2">
         <v>15.221</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F114" s="1">
         <v>12.331</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G114" s="2">
         <v>17.149999999999999</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H114" s="2">
         <v>17.536000000000001</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I114" s="2">
         <v>13.221</v>
       </c>
-      <c r="J43" s="2">
+      <c r="J114" s="2">
         <v>16.814</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="A54" s="1"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-    </row>
-    <row r="55" spans="1:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="2"/>
-    </row>
-    <row r="56" spans="1:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="2"/>
-    </row>
-    <row r="57" spans="1:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="2"/>
-    </row>
-    <row r="58" spans="1:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="2"/>
-    </row>
-    <row r="59" spans="1:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="2"/>
-    </row>
-    <row r="80" spans="1:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="A80" s="1"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-    </row>
-    <row r="81" spans="1:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="2"/>
-    </row>
-    <row r="82" spans="1:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="2"/>
-    </row>
-    <row r="83" spans="1:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="2"/>
-    </row>
-    <row r="84" spans="1:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="2"/>
-    </row>
-    <row r="85" spans="1:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="2"/>
-    </row>
-    <row r="106" spans="1:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="A106" s="1"/>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
-    </row>
-    <row r="107" spans="1:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="A107" s="2"/>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="2"/>
-    </row>
-    <row r="108" spans="1:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="2"/>
-    </row>
-    <row r="109" spans="1:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="2"/>
-    </row>
-    <row r="110" spans="1:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="A110" s="2"/>
-      <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="2"/>
-    </row>
-    <row r="111" spans="1:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="2"/>
     </row>
     <row r="135" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
@@ -1547,5 +5138,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>